--- a/projects/va_emerging_tech/data/data_va_noEmissionLimit.xlsx
+++ b/projects/va_emerging_tech/data/data_va_noEmissionLimit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7C4C12-8E75-42A8-BF4B-5BD618470B28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E58597E-7C53-4E2E-9C14-61F1F6F92EB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="844" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="844" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -781,15 +781,9 @@
     <t>VA IRP, 300.68</t>
   </si>
   <si>
-    <t>VA IRP, 14.35</t>
-  </si>
-  <si>
     <t>Luo [Mid Value]</t>
   </si>
   <si>
-    <t>Assuming similar to Bath County</t>
-  </si>
-  <si>
     <t>NREL ATB (NPD 4)</t>
   </si>
   <si>
@@ -812,6 +806,12 @@
   </si>
   <si>
     <t>https://www.eia.gov/state/seds/sep_fuel/html/pdf/fuel_pr_ww.pdf, NREL ATB</t>
+  </si>
+  <si>
+    <t>Beuse et al.</t>
+  </si>
+  <si>
+    <t>VA IRP, 14.35,=14.35*2.99</t>
   </si>
 </sst>
 </file>
@@ -1034,12 +1034,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
@@ -1048,6 +1046,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1614,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1760,14 +1760,14 @@
       <c r="A3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="58">
         <v>2.85</v>
       </c>
       <c r="C3" s="44">
         <v>0</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1779,12 +1779,9 @@
       <c r="K3" t="s">
         <v>154</v>
       </c>
-      <c r="P3" s="21">
-        <f>14.35*2.99</f>
-        <v>42.906500000000001</v>
-      </c>
+      <c r="P3" s="21"/>
       <c r="Q3" s="21" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
@@ -1798,10 +1795,10 @@
         <v>-0.1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="H4">
-        <v>90.37</v>
+        <v>252</v>
+      </c>
+      <c r="H4" s="49">
+        <v>88.43</v>
       </c>
       <c r="I4" t="s">
         <v>87</v>
@@ -1839,7 +1836,7 @@
         <v>3.6</v>
       </c>
       <c r="D6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H6">
         <v>67.58</v>
@@ -1865,7 +1862,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H7">
         <v>50.3</v>
@@ -1927,7 +1924,7 @@
       <c r="A10" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="57">
         <v>0.63</v>
       </c>
       <c r="C10" s="12">
@@ -2010,7 +2007,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2150,7 +2147,7 @@
       <c r="H4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="59">
         <v>0.95</v>
       </c>
       <c r="K4" s="13">
@@ -2246,7 +2243,7 @@
       <c r="H7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="61">
+      <c r="J7" s="59">
         <v>0.91</v>
       </c>
       <c r="K7" s="13">
@@ -2278,10 +2275,10 @@
       <c r="H8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="62">
+      <c r="J8" s="60">
         <v>0.37</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="60">
         <v>-3.68</v>
       </c>
     </row>
@@ -2342,10 +2339,10 @@
       <c r="H10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="60">
         <v>0.51</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="60">
         <v>-2.84</v>
       </c>
     </row>
@@ -2363,7 +2360,7 @@
         <v>119</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>118</v>
@@ -2377,7 +2374,7 @@
       <c r="I11">
         <v>12</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J11" s="59">
         <v>0.95</v>
       </c>
       <c r="K11" s="13">
@@ -2430,7 +2427,7 @@
         <v>119</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>119</v>
@@ -2444,7 +2441,7 @@
       <c r="I13">
         <v>12</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13" s="59">
         <v>0.95</v>
       </c>
       <c r="K13" s="13">
@@ -2511,7 +2508,7 @@
       <c r="H15" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J15" s="59">
         <v>0.95</v>
       </c>
       <c r="K15" s="13">
@@ -2674,7 +2671,7 @@
       <c r="J20" s="13">
         <v>0.23</v>
       </c>
-      <c r="K20" s="62">
+      <c r="K20" s="60">
         <v>-2.95</v>
       </c>
     </row>
@@ -2703,10 +2700,10 @@
       <c r="H21" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="60">
         <v>0.33</v>
       </c>
-      <c r="K21" s="61">
+      <c r="K21" s="59">
         <v>-2</v>
       </c>
     </row>
@@ -2724,7 +2721,7 @@
         <v>119</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>119</v>
@@ -2773,7 +2770,7 @@
       <c r="J23" s="13">
         <v>0.23</v>
       </c>
-      <c r="K23" s="62">
+      <c r="K23" s="60">
         <v>-2.95</v>
       </c>
     </row>
@@ -2802,10 +2799,10 @@
       <c r="H24" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="62">
+      <c r="J24" s="60">
         <v>0.33</v>
       </c>
-      <c r="K24" s="61">
+      <c r="K24" s="59">
         <v>-2</v>
       </c>
     </row>
@@ -3121,15 +3118,15 @@
         <v>80</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="34"/>
       <c r="H11" s="35">
         <v>100</v>
       </c>
-      <c r="I11" s="56" t="s">
-        <v>251</v>
+      <c r="I11" s="54" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3196,15 +3193,15 @@
         <v>80</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="40">
         <v>100</v>
       </c>
-      <c r="I14" s="57" t="s">
-        <v>251</v>
+      <c r="I14" s="55" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3345,8 +3342,8 @@
       <c r="D20" s="40">
         <v>20</v>
       </c>
-      <c r="E20" s="58" t="s">
-        <v>252</v>
+      <c r="E20" s="56" t="s">
+        <v>250</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -3420,8 +3417,8 @@
       <c r="D23" s="35">
         <v>20</v>
       </c>
-      <c r="E23" s="58" t="s">
-        <v>252</v>
+      <c r="E23" s="56" t="s">
+        <v>250</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="34"/>
@@ -3468,7 +3465,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B14" activeCellId="1" sqref="D14 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3628,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H5" s="46">
         <v>0</v>
@@ -3637,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3771,23 +3768,23 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="E11" s="52">
+      <c r="E11" s="51">
         <v>3</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="H11" s="53">
+        <v>247</v>
+      </c>
+      <c r="H11" s="52">
         <v>0.83299999999999996</v>
       </c>
       <c r="I11" s="43">
         <v>0</v>
       </c>
-      <c r="J11" s="54" t="s">
-        <v>248</v>
+      <c r="J11" s="53" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -3853,32 +3850,32 @@
       <c r="A14" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="55">
-        <v>1179</v>
+      <c r="B14" s="63">
+        <v>1439</v>
       </c>
       <c r="C14" s="43">
         <v>0</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="E14" s="51">
+      <c r="D14" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="E14" s="50">
         <v>3</v>
       </c>
       <c r="F14" s="43">
         <v>0</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="H14" s="53">
+        <v>247</v>
+      </c>
+      <c r="H14" s="52">
         <v>0.83299999999999996</v>
       </c>
       <c r="I14" s="43">
         <v>0</v>
       </c>
-      <c r="J14" s="54" t="s">
-        <v>248</v>
+      <c r="J14" s="53" t="s">
+        <v>247</v>
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
@@ -10549,10 +10546,10 @@
       <c r="E3" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="63">
-        <v>0</v>
-      </c>
-      <c r="G3" s="63">
+      <c r="F3" s="61">
+        <v>0</v>
+      </c>
+      <c r="G3" s="61">
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -10596,10 +10593,10 @@
       <c r="E4" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="63">
-        <v>0</v>
-      </c>
-      <c r="G4" s="63">
+      <c r="F4" s="61">
+        <v>0</v>
+      </c>
+      <c r="G4" s="61">
         <v>0</v>
       </c>
       <c r="H4" s="2"/>
@@ -10641,10 +10638,10 @@
       <c r="E5" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="63">
-        <v>0</v>
-      </c>
-      <c r="G5" s="63">
+      <c r="F5" s="61">
+        <v>0</v>
+      </c>
+      <c r="G5" s="61">
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -10688,10 +10685,10 @@
       <c r="E6" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="63">
-        <v>0</v>
-      </c>
-      <c r="G6" s="63">
+      <c r="F6" s="61">
+        <v>0</v>
+      </c>
+      <c r="G6" s="61">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -10733,10 +10730,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="63">
-        <v>0</v>
-      </c>
-      <c r="G7" s="63">
+      <c r="F7" s="61">
+        <v>0</v>
+      </c>
+      <c r="G7" s="61">
         <v>0</v>
       </c>
       <c r="H7" s="2"/>
@@ -10779,7 +10776,7 @@
       <c r="F8" s="13">
         <v>0</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="61">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -10826,7 +10823,7 @@
       <c r="F9" s="13">
         <v>0</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="61">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -10871,7 +10868,7 @@
       <c r="F10" s="13">
         <v>0.50697570000000003</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="61">
         <v>20</v>
       </c>
       <c r="H10" s="2"/>
@@ -10913,7 +10910,7 @@
       <c r="F11" s="13">
         <v>0.37906770000000001</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="61">
         <v>20</v>
       </c>
       <c r="H11" s="2"/>
@@ -10954,7 +10951,7 @@
       <c r="F12" s="13">
         <v>0.28218300000000002</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="61">
         <v>20</v>
       </c>
       <c r="H12" s="2"/>
@@ -10995,7 +10992,7 @@
       <c r="F13" s="13">
         <v>0</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="61">
         <v>0</v>
       </c>
       <c r="H13" s="2"/>
@@ -11037,7 +11034,7 @@
       <c r="F14" s="13">
         <v>0</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="61">
         <v>0</v>
       </c>
       <c r="H14" s="2"/>
@@ -11078,7 +11075,7 @@
       <c r="F15" s="13">
         <v>0</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="61">
         <v>0</v>
       </c>
       <c r="H15" s="2"/>
@@ -13086,8 +13083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF032A-2D29-654E-94C4-B44BF2439BC1}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A3:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/projects/va_emerging_tech/data/data_va_noEmissionLimit.xlsx
+++ b/projects/va_emerging_tech/data/data_va_noEmissionLimit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E58597E-7C53-4E2E-9C14-61F1F6F92EB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173E0AA3-9ABA-43E5-8D48-6DEB162928BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="844" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -811,7 +811,7 @@
     <t>Beuse et al.</t>
   </si>
   <si>
-    <t>VA IRP, 14.35,=14.35*2.99</t>
+    <t>VA IRP, 14.35,</t>
   </si>
 </sst>
 </file>
@@ -1614,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1779,7 +1779,10 @@
       <c r="K3" t="s">
         <v>154</v>
       </c>
-      <c r="P3" s="21"/>
+      <c r="P3">
+        <f>14.35*2.99</f>
+        <v>42.906500000000001</v>
+      </c>
       <c r="Q3" s="21" t="s">
         <v>257</v>
       </c>

--- a/projects/va_emerging_tech/data/data_va_noEmissionLimit.xlsx
+++ b/projects/va_emerging_tech/data/data_va_noEmissionLimit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173E0AA3-9ABA-43E5-8D48-6DEB162928BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00316D14-4C25-4FFC-B2AB-4F964B823971}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="844" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="6840" windowWidth="29040" windowHeight="15840" tabRatio="844" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -28,17 +28,26 @@
     <sheet name="ReserveMargin" sheetId="13" r:id="rId18"/>
     <sheet name="capacityFactorTOD" sheetId="14" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="260">
   <si>
     <t>connection</t>
   </si>
@@ -812,6 +821,12 @@
   </si>
   <si>
     <t>VA IRP, 14.35,</t>
+  </si>
+  <si>
+    <t>fuel2</t>
+  </si>
+  <si>
+    <t>Efficiency2</t>
   </si>
 </sst>
 </file>
@@ -1361,12 +1376,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1386,7 +1401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1406,7 +1421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1414,7 +1429,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -1423,13 +1438,13 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1440,7 +1455,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1451,7 +1466,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1462,7 +1477,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1473,7 +1488,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1481,32 +1496,32 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>123</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>124</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -1514,7 +1529,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -1522,7 +1537,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -1530,7 +1545,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -1538,13 +1553,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>129</v>
       </c>
       <c r="C19" s="12"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -1552,7 +1567,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -1560,7 +1575,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -1568,7 +1583,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>132</v>
       </c>
@@ -1576,7 +1591,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -1584,7 +1599,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>164</v>
       </c>
@@ -1614,31 +1629,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.07421875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1697,7 +1712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1756,7 +1771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -1787,7 +1802,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1813,7 +1828,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1828,7 +1843,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -1854,7 +1869,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -1893,7 +1908,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -1908,7 +1923,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -1923,7 +1938,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -1943,7 +1958,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
     </row>
@@ -1967,12 +1982,12 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1986,7 +2001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2007,23 +2022,24 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3046875" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2031,34 +2047,37 @@
         <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -2069,7 +2088,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>77</v>
@@ -2083,424 +2102,437 @@
       <c r="H2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I2" t="s">
-        <v>181</v>
+      <c r="I2" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="J2" t="s">
         <v>181</v>
       </c>
       <c r="K2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>118</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="13">
+      <c r="I3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="13">
         <v>0.9</v>
       </c>
-      <c r="K3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>235</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="59">
+      <c r="I4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="59">
         <v>0.95</v>
       </c>
-      <c r="K4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="13">
+      <c r="K5" s="13">
         <v>0.95</v>
       </c>
-      <c r="K5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>118</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="13">
+      <c r="I6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="13">
         <v>0.95</v>
       </c>
-      <c r="K6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>118</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="59">
+      <c r="I7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="59">
         <v>0.91</v>
       </c>
-      <c r="K7" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="60">
+      <c r="K8" s="60">
         <v>0.37</v>
       </c>
-      <c r="K8" s="60">
+      <c r="L8" s="60">
         <v>-3.68</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>118</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="13">
+      <c r="I9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="13">
         <v>0.98</v>
       </c>
-      <c r="K9" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
         <v>238</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="60">
+      <c r="K10" s="60">
         <v>0.51</v>
       </c>
-      <c r="K10" s="60">
+      <c r="L10" s="60">
         <v>-2.84</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>12</v>
       </c>
-      <c r="J11" s="59">
+      <c r="K11" s="59">
         <v>0.95</v>
       </c>
-      <c r="K11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>193</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="13">
+      <c r="K12" s="13">
         <v>0.95</v>
       </c>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
         <v>203</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>12</v>
       </c>
-      <c r="J13" s="59">
+      <c r="K13" s="59">
         <v>0.95</v>
       </c>
-      <c r="K13" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="F14" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="G14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="H14" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="I14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4</v>
       </c>
-      <c r="J14" s="13">
+      <c r="K14" s="13">
         <v>0.75</v>
       </c>
-      <c r="K14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>119</v>
@@ -2509,91 +2541,94 @@
         <v>119</v>
       </c>
       <c r="H15" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="59">
+      <c r="K15" s="59">
         <v>0.95</v>
       </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>176</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="5" t="s">
         <v>119</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="13">
+      <c r="I16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="13">
         <v>0.9</v>
       </c>
-      <c r="K16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>178</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="5" t="s">
         <v>119</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="13">
+      <c r="I17" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="13">
         <v>0.95</v>
       </c>
-      <c r="K17" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>119</v>
@@ -2602,65 +2637,67 @@
         <v>119</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J18" s="13">
+      <c r="I18" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="13">
         <v>0.95</v>
       </c>
-      <c r="K18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>119</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="13">
+      <c r="I19" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="13">
         <v>0.91</v>
       </c>
-      <c r="K19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>119</v>
@@ -2669,30 +2706,31 @@
         <v>119</v>
       </c>
       <c r="H20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="13">
+      <c r="K20" s="13">
         <v>0.23</v>
       </c>
-      <c r="K20" s="60">
+      <c r="L20" s="60">
         <v>-2.95</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="E21" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>119</v>
@@ -2701,126 +2739,132 @@
         <v>119</v>
       </c>
       <c r="H21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="60">
+      <c r="K21" s="60">
         <v>0.33</v>
       </c>
-      <c r="K21" s="59">
+      <c r="L21" s="59">
         <v>-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>4</v>
       </c>
-      <c r="J22" s="13">
+      <c r="K22" s="13">
         <v>0.75</v>
       </c>
-      <c r="K22" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="G23" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J23" s="13">
+      <c r="K23" s="13">
         <v>0.23</v>
       </c>
-      <c r="K23" s="60">
+      <c r="L23" s="60">
         <v>-2.95</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="G24" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="60">
+      <c r="K24" s="60">
         <v>0.33</v>
       </c>
-      <c r="K24" s="59">
+      <c r="L24" s="59">
         <v>-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:I11 D14:I24">
+  <conditionalFormatting sqref="E3:J11 E14:J24">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:I12">
+  <conditionalFormatting sqref="E12:J12">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:I13">
+  <conditionalFormatting sqref="E13:J13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2832,24 +2876,24 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2863,22 +2907,25 @@
         <v>39</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
@@ -2892,22 +2939,25 @@
         <v>70</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -2920,19 +2970,20 @@
       <c r="D3" s="8">
         <v>39.4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="5">
+      <c r="H3" s="8"/>
+      <c r="I3" s="5">
         <v>60</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>235</v>
       </c>
@@ -2945,19 +2996,20 @@
       <c r="D4" s="8">
         <v>35.299999999999997</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="6">
+      <c r="H4" s="8"/>
+      <c r="I4" s="6">
         <v>55</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
@@ -2970,19 +3022,20 @@
       <c r="D5" s="8">
         <v>90</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="5">
+      <c r="H5" s="8"/>
+      <c r="I5" s="5">
         <v>100</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
@@ -2995,19 +3048,20 @@
       <c r="D6" s="34">
         <v>54.1</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="34"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="35">
+      <c r="H6" s="34"/>
+      <c r="I6" s="35">
         <v>35</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="J6" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>236</v>
       </c>
@@ -3020,19 +3074,20 @@
       <c r="D7" s="35">
         <v>54.1</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="34"/>
       <c r="G7" s="34"/>
-      <c r="H7" s="35">
+      <c r="H7" s="34"/>
+      <c r="I7" s="35">
         <v>35</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="J7" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
@@ -3045,19 +3100,20 @@
       <c r="D8" s="35">
         <v>20</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="34"/>
       <c r="G8" s="34"/>
-      <c r="H8" s="35">
+      <c r="H8" s="34"/>
+      <c r="I8" s="35">
         <v>30</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="J8" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>186</v>
       </c>
@@ -3070,19 +3126,20 @@
       <c r="D9" s="35">
         <v>32.6</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="34"/>
       <c r="G9" s="34"/>
-      <c r="H9" s="35">
+      <c r="H9" s="34"/>
+      <c r="I9" s="35">
         <v>100</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="J9" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>193</v>
       </c>
@@ -3095,19 +3152,20 @@
       <c r="D10" s="35">
         <v>35.299999999999997</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34">
+      <c r="G10" s="35"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34">
         <v>45</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="J10" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>202</v>
       </c>
@@ -3120,19 +3178,20 @@
       <c r="D11" s="35">
         <v>80</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="35"/>
+      <c r="F11" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35">
+      <c r="G11" s="35"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35">
         <v>100</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="J11" s="54" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>107</v>
       </c>
@@ -3145,19 +3204,20 @@
       <c r="D12" s="35">
         <v>50</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="34"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="35">
+      <c r="H12" s="34"/>
+      <c r="I12" s="35">
         <v>30</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="J12" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="30" t="s">
         <v>108</v>
       </c>
@@ -3170,19 +3230,20 @@
       <c r="D13" s="40">
         <v>85</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="40"/>
+      <c r="F13" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="40"/>
       <c r="G13" s="40"/>
-      <c r="H13" s="40">
+      <c r="H13" s="40"/>
+      <c r="I13" s="40">
         <v>15</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="J13" s="40" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="30" t="s">
         <v>203</v>
       </c>
@@ -3195,19 +3256,20 @@
       <c r="D14" s="40">
         <v>80</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="F14" s="40"/>
       <c r="G14" s="40"/>
-      <c r="H14" s="40">
+      <c r="H14" s="40"/>
+      <c r="I14" s="40">
         <v>100</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="J14" s="55" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="30" t="s">
         <v>109</v>
       </c>
@@ -3220,19 +3282,20 @@
       <c r="D15" s="40">
         <v>35.299999999999997</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="40"/>
       <c r="G15" s="40"/>
-      <c r="H15" s="32">
+      <c r="H15" s="40"/>
+      <c r="I15" s="32">
         <v>45</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="J15" s="40" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="30" t="s">
         <v>176</v>
       </c>
@@ -3245,19 +3308,20 @@
       <c r="D16" s="39">
         <v>39.4</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="40"/>
       <c r="G16" s="40"/>
-      <c r="H16" s="40">
+      <c r="H16" s="40"/>
+      <c r="I16" s="40">
         <v>40</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="J16" s="40" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="30" t="s">
         <v>178</v>
       </c>
@@ -3270,19 +3334,20 @@
       <c r="D17" s="39">
         <v>51.7</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="40"/>
       <c r="G17" s="40"/>
-      <c r="H17" s="40">
+      <c r="H17" s="40"/>
+      <c r="I17" s="40">
         <v>45</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="J17" s="40" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="30" t="s">
         <v>110</v>
       </c>
@@ -3295,19 +3360,20 @@
       <c r="D18" s="40">
         <v>54.1</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="40"/>
       <c r="G18" s="40"/>
-      <c r="H18" s="40">
+      <c r="H18" s="40"/>
+      <c r="I18" s="40">
         <v>30</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="J18" s="40" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="30" t="s">
         <v>111</v>
       </c>
@@ -3320,19 +3386,20 @@
       <c r="D19" s="40">
         <v>42.47</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="40"/>
       <c r="G19" s="40"/>
-      <c r="H19" s="32">
+      <c r="H19" s="40"/>
+      <c r="I19" s="32">
         <v>55</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="J19" s="40" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="30" t="s">
         <v>112</v>
       </c>
@@ -3345,19 +3412,20 @@
       <c r="D20" s="40">
         <v>20</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="F20" s="40"/>
       <c r="G20" s="40"/>
-      <c r="H20" s="40">
+      <c r="H20" s="40"/>
+      <c r="I20" s="40">
         <v>30</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="J20" s="40" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="30" t="s">
         <v>113</v>
       </c>
@@ -3370,19 +3438,20 @@
       <c r="D21" s="40">
         <v>50</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="40"/>
       <c r="G21" s="40"/>
-      <c r="H21" s="40">
+      <c r="H21" s="40"/>
+      <c r="I21" s="40">
         <v>30</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="J21" s="40" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
@@ -3395,19 +3464,20 @@
       <c r="D22" s="34">
         <v>85</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F22" s="34"/>
       <c r="G22" s="34"/>
-      <c r="H22" s="34">
+      <c r="H22" s="34"/>
+      <c r="I22" s="34">
         <v>15</v>
       </c>
-      <c r="I22" s="35" t="s">
+      <c r="J22" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
@@ -3420,19 +3490,20 @@
       <c r="D23" s="35">
         <v>20</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="35"/>
+      <c r="F23" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34">
+      <c r="G23" s="35"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34">
         <v>30</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="J23" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>229</v>
       </c>
@@ -3445,15 +3516,16 @@
       <c r="D24" s="5">
         <v>25</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8">
+      <c r="G24" s="5"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8">
         <v>30</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3471,24 +3543,24 @@
       <selection activeCell="B14" activeCellId="1" sqref="D14 B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.4609375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3526,7 +3598,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3564,7 +3636,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="41" t="s">
         <v>103</v>
       </c>
@@ -3589,7 +3661,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A4" s="41" t="s">
         <v>235</v>
       </c>
@@ -3615,7 +3687,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A5" s="41" t="s">
         <v>104</v>
       </c>
@@ -3640,7 +3712,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="41" t="s">
         <v>105</v>
       </c>
@@ -3665,7 +3737,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="41" t="s">
         <v>236</v>
       </c>
@@ -3690,7 +3762,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="41" t="s">
         <v>106</v>
       </c>
@@ -3715,7 +3787,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="41" t="s">
         <v>186</v>
       </c>
@@ -3740,7 +3812,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="41" t="s">
         <v>193</v>
       </c>
@@ -3765,7 +3837,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A11" s="41" t="s">
         <v>202</v>
       </c>
@@ -3790,7 +3862,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="41" t="s">
         <v>107</v>
       </c>
@@ -3815,7 +3887,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="42" t="s">
         <v>108</v>
       </c>
@@ -3849,7 +3921,7 @@
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
     </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A14" s="42" t="s">
         <v>203</v>
       </c>
@@ -3883,7 +3955,7 @@
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="42" t="s">
         <v>109</v>
       </c>
@@ -3917,7 +3989,7 @@
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="42" t="s">
         <v>176</v>
       </c>
@@ -3951,7 +4023,7 @@
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="42" t="s">
         <v>178</v>
       </c>
@@ -3985,7 +4057,7 @@
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="42" t="s">
         <v>110</v>
       </c>
@@ -4019,7 +4091,7 @@
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="42" t="s">
         <v>111</v>
       </c>
@@ -4053,7 +4125,7 @@
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="42" t="s">
         <v>112</v>
       </c>
@@ -4091,7 +4163,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="42" t="s">
         <v>113</v>
       </c>
@@ -4129,7 +4201,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="41" t="s">
         <v>120</v>
       </c>
@@ -4161,7 +4233,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="41" t="s">
         <v>121</v>
       </c>
@@ -4199,7 +4271,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="41" t="s">
         <v>229</v>
       </c>
@@ -4237,7 +4309,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="5"/>
@@ -4259,20 +4331,20 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4304,7 +4376,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4336,7 +4408,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -4346,7 +4418,7 @@
       <c r="C3" s="5"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>235</v>
       </c>
@@ -4356,7 +4428,7 @@
       <c r="C4" s="5"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
@@ -4364,7 +4436,7 @@
       <c r="C5" s="5"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
@@ -4372,7 +4444,7 @@
       <c r="C6" s="5"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>236</v>
       </c>
@@ -4380,7 +4452,7 @@
       <c r="C7" s="5"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
@@ -4388,7 +4460,7 @@
       <c r="C8" s="5"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>186</v>
       </c>
@@ -4398,7 +4470,7 @@
       <c r="C9" s="5"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>193</v>
       </c>
@@ -4408,7 +4480,7 @@
       <c r="C10" s="5"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>202</v>
       </c>
@@ -4416,7 +4488,7 @@
       <c r="C11" s="5"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>107</v>
       </c>
@@ -4424,7 +4496,7 @@
       <c r="C12" s="5"/>
       <c r="H12" s="49"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="30" t="s">
         <v>108</v>
       </c>
@@ -4440,7 +4512,7 @@
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="30" t="s">
         <v>203</v>
       </c>
@@ -4460,7 +4532,7 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="30" t="s">
         <v>109</v>
       </c>
@@ -4478,7 +4550,7 @@
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="30" t="s">
         <v>176</v>
       </c>
@@ -4496,7 +4568,7 @@
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="30" t="s">
         <v>178</v>
       </c>
@@ -4514,7 +4586,7 @@
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="30" t="s">
         <v>110</v>
       </c>
@@ -4530,7 +4602,7 @@
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="30" t="s">
         <v>111</v>
       </c>
@@ -4546,7 +4618,7 @@
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="30" t="s">
         <v>112</v>
       </c>
@@ -4566,7 +4638,7 @@
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="30" t="s">
         <v>113</v>
       </c>
@@ -4586,7 +4658,7 @@
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
@@ -4594,7 +4666,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
@@ -4608,7 +4680,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>229</v>
       </c>
@@ -4630,14 +4702,14 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4651,7 +4723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4665,7 +4737,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -4679,7 +4751,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>235</v>
       </c>
@@ -4693,7 +4765,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -4707,7 +4779,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -4721,7 +4793,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -4735,7 +4807,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>236</v>
       </c>
@@ -4749,7 +4821,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -4763,7 +4835,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -4777,7 +4849,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -4791,7 +4863,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>193</v>
       </c>
@@ -4805,7 +4877,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -4833,14 +4905,14 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -4854,7 +4926,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4868,7 +4940,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="13">
         <v>2025</v>
       </c>
@@ -4882,7 +4954,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="13">
         <v>2030</v>
       </c>
@@ -4896,7 +4968,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="13">
         <v>2035</v>
       </c>
@@ -4910,7 +4982,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="13">
         <v>2040</v>
       </c>
@@ -4924,7 +4996,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="13">
         <v>2045</v>
       </c>
@@ -4938,7 +5010,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="13">
         <v>2050</v>
       </c>
@@ -4952,7 +5024,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="39">
         <v>2035</v>
       </c>
@@ -4966,7 +5038,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="39">
         <v>2040</v>
       </c>
@@ -4980,7 +5052,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="39">
         <v>2045</v>
       </c>
@@ -4994,7 +5066,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="39">
         <v>2050</v>
       </c>
@@ -5008,7 +5080,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="13">
         <v>2035</v>
       </c>
@@ -5022,7 +5094,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="13">
         <v>2040</v>
       </c>
@@ -5036,7 +5108,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="13">
         <v>2045</v>
       </c>
@@ -5050,7 +5122,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="13">
         <v>2050</v>
       </c>
@@ -5077,14 +5149,14 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -5092,7 +5164,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -5100,7 +5172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A3" s="23">
         <v>0.41860000000000003</v>
       </c>
@@ -5118,15 +5190,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -5143,7 +5215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5160,7 +5232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
@@ -5177,7 +5249,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -5194,7 +5266,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
@@ -5211,7 +5283,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -5228,7 +5300,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -5245,7 +5317,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -5262,7 +5334,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -5279,7 +5351,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -5296,7 +5368,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
@@ -5313,7 +5385,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -5330,7 +5402,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
@@ -5347,7 +5419,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -5364,7 +5436,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -5381,7 +5453,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>92</v>
       </c>
@@ -5398,7 +5470,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -5415,7 +5487,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>92</v>
       </c>
@@ -5432,7 +5504,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -5449,7 +5521,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -5466,7 +5538,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -5483,7 +5555,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
@@ -5500,7 +5572,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -5517,7 +5589,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -5534,7 +5606,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
@@ -5551,7 +5623,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -5568,7 +5640,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -5585,7 +5657,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -5602,7 +5674,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
@@ -5619,7 +5691,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -5636,7 +5708,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
@@ -5653,7 +5725,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -5670,7 +5742,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -5687,7 +5759,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -5704,7 +5776,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
@@ -5721,7 +5793,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -5738,7 +5810,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -5755,7 +5827,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -5772,7 +5844,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>92</v>
       </c>
@@ -5789,7 +5861,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -5806,7 +5878,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -5823,7 +5895,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -5840,7 +5912,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
@@ -5857,7 +5929,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
@@ -5874,7 +5946,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -5891,7 +5963,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -5908,7 +5980,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -5925,7 +5997,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -5942,7 +6014,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -5959,7 +6031,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -5976,7 +6048,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -5993,7 +6065,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -6010,7 +6082,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>92</v>
       </c>
@@ -6027,7 +6099,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
@@ -6044,7 +6116,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>92</v>
       </c>
@@ -6061,7 +6133,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>92</v>
       </c>
@@ -6078,7 +6150,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>92</v>
       </c>
@@ -6095,7 +6167,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>92</v>
       </c>
@@ -6112,7 +6184,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>92</v>
       </c>
@@ -6129,7 +6201,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>92</v>
       </c>
@@ -6146,7 +6218,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>92</v>
       </c>
@@ -6163,7 +6235,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>92</v>
       </c>
@@ -6180,7 +6252,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>92</v>
       </c>
@@ -6197,7 +6269,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>92</v>
       </c>
@@ -6214,7 +6286,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -6231,7 +6303,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -6248,7 +6320,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>92</v>
       </c>
@@ -6265,7 +6337,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>92</v>
       </c>
@@ -6282,7 +6354,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>92</v>
       </c>
@@ -6299,7 +6371,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
@@ -6316,7 +6388,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>92</v>
       </c>
@@ -6333,7 +6405,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>92</v>
       </c>
@@ -6350,7 +6422,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
@@ -6367,7 +6439,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>92</v>
       </c>
@@ -6384,7 +6456,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>92</v>
       </c>
@@ -6401,7 +6473,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>92</v>
       </c>
@@ -6418,7 +6490,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>92</v>
       </c>
@@ -6435,7 +6507,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>92</v>
       </c>
@@ -6452,7 +6524,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>92</v>
       </c>
@@ -6469,7 +6541,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -6486,7 +6558,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>92</v>
       </c>
@@ -6503,7 +6575,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
@@ -6520,7 +6592,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -6537,7 +6609,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -6554,7 +6626,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -6571,7 +6643,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
@@ -6588,7 +6660,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -6605,7 +6677,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>92</v>
       </c>
@@ -6622,7 +6694,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
@@ -6639,7 +6711,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -6656,7 +6728,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -6673,7 +6745,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
@@ -6690,7 +6762,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -6707,7 +6779,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -6724,7 +6796,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
@@ -6741,7 +6813,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -6758,7 +6830,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>92</v>
       </c>
@@ -6775,7 +6847,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>92</v>
       </c>
@@ -6792,7 +6864,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -6809,7 +6881,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>92</v>
       </c>
@@ -6826,7 +6898,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>92</v>
       </c>
@@ -6843,7 +6915,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>92</v>
       </c>
@@ -6860,7 +6932,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>92</v>
       </c>
@@ -6877,7 +6949,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>92</v>
       </c>
@@ -6894,7 +6966,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>92</v>
       </c>
@@ -6911,7 +6983,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>92</v>
       </c>
@@ -6928,7 +7000,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>92</v>
       </c>
@@ -6945,7 +7017,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>92</v>
       </c>
@@ -6962,7 +7034,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>92</v>
       </c>
@@ -6979,7 +7051,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>92</v>
       </c>
@@ -6996,7 +7068,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
         <v>92</v>
       </c>
@@ -7013,7 +7085,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
         <v>92</v>
       </c>
@@ -7030,7 +7102,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>92</v>
       </c>
@@ -7047,7 +7119,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
         <v>92</v>
       </c>
@@ -7064,7 +7136,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
         <v>92</v>
       </c>
@@ -7081,7 +7153,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>92</v>
       </c>
@@ -7098,7 +7170,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
         <v>92</v>
       </c>
@@ -7115,7 +7187,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
         <v>92</v>
       </c>
@@ -7132,7 +7204,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
         <v>92</v>
       </c>
@@ -7149,7 +7221,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>92</v>
       </c>
@@ -7166,7 +7238,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
         <v>92</v>
       </c>
@@ -7183,7 +7255,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
         <v>92</v>
       </c>
@@ -7200,7 +7272,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
         <v>92</v>
       </c>
@@ -7217,7 +7289,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
         <v>92</v>
       </c>
@@ -7234,7 +7306,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
         <v>92</v>
       </c>
@@ -7251,7 +7323,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
         <v>92</v>
       </c>
@@ -7268,7 +7340,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
         <v>92</v>
       </c>
@@ -7285,7 +7357,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>92</v>
       </c>
@@ -7302,7 +7374,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
         <v>92</v>
       </c>
@@ -7319,7 +7391,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
         <v>92</v>
       </c>
@@ -7336,7 +7408,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
         <v>92</v>
       </c>
@@ -7353,7 +7425,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
         <v>92</v>
       </c>
@@ -7370,7 +7442,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
         <v>92</v>
       </c>
@@ -7387,7 +7459,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
         <v>92</v>
       </c>
@@ -7404,7 +7476,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
         <v>92</v>
       </c>
@@ -7421,7 +7493,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>92</v>
       </c>
@@ -7438,7 +7510,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
         <v>92</v>
       </c>
@@ -7455,7 +7527,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>92</v>
       </c>
@@ -7472,7 +7544,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
         <v>92</v>
       </c>
@@ -7489,7 +7561,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
         <v>92</v>
       </c>
@@ -7506,7 +7578,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
         <v>92</v>
       </c>
@@ -7523,7 +7595,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
         <v>92</v>
       </c>
@@ -7540,7 +7612,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>92</v>
       </c>
@@ -7557,7 +7629,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
         <v>92</v>
       </c>
@@ -7574,7 +7646,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
         <v>92</v>
       </c>
@@ -7591,7 +7663,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
         <v>92</v>
       </c>
@@ -7608,7 +7680,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
         <v>93</v>
       </c>
@@ -7625,7 +7697,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
         <v>93</v>
       </c>
@@ -7642,7 +7714,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
         <v>93</v>
       </c>
@@ -7659,7 +7731,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
         <v>93</v>
       </c>
@@ -7676,7 +7748,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
         <v>93</v>
       </c>
@@ -7693,7 +7765,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
         <v>93</v>
       </c>
@@ -7710,7 +7782,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>93</v>
       </c>
@@ -7727,7 +7799,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
         <v>93</v>
       </c>
@@ -7744,7 +7816,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
         <v>93</v>
       </c>
@@ -7761,7 +7833,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
         <v>93</v>
       </c>
@@ -7778,7 +7850,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
         <v>93</v>
       </c>
@@ -7795,7 +7867,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
         <v>93</v>
       </c>
@@ -7812,7 +7884,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>93</v>
       </c>
@@ -7829,7 +7901,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
         <v>93</v>
       </c>
@@ -7846,7 +7918,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
         <v>93</v>
       </c>
@@ -7863,7 +7935,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
         <v>93</v>
       </c>
@@ -7880,7 +7952,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
         <v>93</v>
       </c>
@@ -7897,7 +7969,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>93</v>
       </c>
@@ -7914,7 +7986,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
         <v>93</v>
       </c>
@@ -7931,7 +8003,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
         <v>93</v>
       </c>
@@ -7948,7 +8020,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
         <v>93</v>
       </c>
@@ -7965,7 +8037,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
         <v>93</v>
       </c>
@@ -7982,7 +8054,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
         <v>93</v>
       </c>
@@ -7999,7 +8071,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
         <v>93</v>
       </c>
@@ -8016,7 +8088,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
         <v>93</v>
       </c>
@@ -8033,7 +8105,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
         <v>93</v>
       </c>
@@ -8050,7 +8122,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
         <v>93</v>
       </c>
@@ -8067,7 +8139,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
         <v>93</v>
       </c>
@@ -8084,7 +8156,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
         <v>93</v>
       </c>
@@ -8101,7 +8173,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
         <v>93</v>
       </c>
@@ -8118,7 +8190,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
         <v>93</v>
       </c>
@@ -8135,7 +8207,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="2" t="s">
         <v>93</v>
       </c>
@@ -8152,7 +8224,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
         <v>93</v>
       </c>
@@ -8169,7 +8241,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
         <v>93</v>
       </c>
@@ -8186,7 +8258,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
         <v>93</v>
       </c>
@@ -8203,7 +8275,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
         <v>93</v>
       </c>
@@ -8220,7 +8292,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
         <v>93</v>
       </c>
@@ -8237,7 +8309,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
         <v>93</v>
       </c>
@@ -8254,7 +8326,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
         <v>93</v>
       </c>
@@ -8271,7 +8343,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
         <v>93</v>
       </c>
@@ -8288,7 +8360,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
         <v>93</v>
       </c>
@@ -8305,7 +8377,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
         <v>93</v>
       </c>
@@ -8322,7 +8394,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
         <v>93</v>
       </c>
@@ -8339,7 +8411,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
         <v>93</v>
       </c>
@@ -8356,7 +8428,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
         <v>93</v>
       </c>
@@ -8373,7 +8445,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
         <v>93</v>
       </c>
@@ -8390,7 +8462,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
         <v>93</v>
       </c>
@@ -8407,7 +8479,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
         <v>93</v>
       </c>
@@ -8424,7 +8496,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
         <v>93</v>
       </c>
@@ -8441,7 +8513,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="2" t="s">
         <v>93</v>
       </c>
@@ -8458,7 +8530,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
         <v>93</v>
       </c>
@@ -8475,7 +8547,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
         <v>93</v>
       </c>
@@ -8492,7 +8564,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
         <v>93</v>
       </c>
@@ -8509,7 +8581,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
         <v>93</v>
       </c>
@@ -8526,7 +8598,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
         <v>93</v>
       </c>
@@ -8543,7 +8615,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
         <v>93</v>
       </c>
@@ -8560,7 +8632,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
         <v>93</v>
       </c>
@@ -8577,7 +8649,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
         <v>93</v>
       </c>
@@ -8594,7 +8666,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A205" s="2" t="s">
         <v>93</v>
       </c>
@@ -8611,7 +8683,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A206" s="2" t="s">
         <v>93</v>
       </c>
@@ -8628,7 +8700,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A207" s="2" t="s">
         <v>93</v>
       </c>
@@ -8645,7 +8717,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
         <v>93</v>
       </c>
@@ -8662,7 +8734,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A209" s="2" t="s">
         <v>93</v>
       </c>
@@ -8679,7 +8751,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A210" s="2" t="s">
         <v>93</v>
       </c>
@@ -8696,7 +8768,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A211" s="2" t="s">
         <v>93</v>
       </c>
@@ -8713,7 +8785,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A212" s="2" t="s">
         <v>93</v>
       </c>
@@ -8730,7 +8802,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
         <v>93</v>
       </c>
@@ -8747,7 +8819,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A214" s="2" t="s">
         <v>93</v>
       </c>
@@ -8764,7 +8836,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A215" s="2" t="s">
         <v>93</v>
       </c>
@@ -8781,7 +8853,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A216" s="2" t="s">
         <v>93</v>
       </c>
@@ -8798,7 +8870,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A217" s="2" t="s">
         <v>93</v>
       </c>
@@ -8815,7 +8887,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A218" s="2" t="s">
         <v>93</v>
       </c>
@@ -8832,7 +8904,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A219" s="2" t="s">
         <v>93</v>
       </c>
@@ -8849,7 +8921,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A220" s="2" t="s">
         <v>93</v>
       </c>
@@ -8866,7 +8938,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A221" s="2" t="s">
         <v>93</v>
       </c>
@@ -8883,7 +8955,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A222" s="2" t="s">
         <v>93</v>
       </c>
@@ -8900,7 +8972,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A223" s="2" t="s">
         <v>93</v>
       </c>
@@ -8917,7 +8989,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A224" s="2" t="s">
         <v>93</v>
       </c>
@@ -8934,7 +9006,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A225" s="2" t="s">
         <v>93</v>
       </c>
@@ -8951,7 +9023,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A226" s="2" t="s">
         <v>93</v>
       </c>
@@ -8968,7 +9040,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A227" s="2" t="s">
         <v>93</v>
       </c>
@@ -8985,7 +9057,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A228" s="2" t="s">
         <v>93</v>
       </c>
@@ -9002,7 +9074,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A229" s="2" t="s">
         <v>93</v>
       </c>
@@ -9019,7 +9091,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A230" s="2" t="s">
         <v>93</v>
       </c>
@@ -9036,7 +9108,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A231" s="2" t="s">
         <v>93</v>
       </c>
@@ -9053,7 +9125,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A232" s="2" t="s">
         <v>93</v>
       </c>
@@ -9070,7 +9142,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A233" s="2" t="s">
         <v>93</v>
       </c>
@@ -9087,7 +9159,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A234" s="2" t="s">
         <v>93</v>
       </c>
@@ -9104,7 +9176,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A235" s="2" t="s">
         <v>93</v>
       </c>
@@ -9121,7 +9193,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A236" s="2" t="s">
         <v>93</v>
       </c>
@@ -9138,7 +9210,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A237" s="2" t="s">
         <v>93</v>
       </c>
@@ -9155,7 +9227,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A238" s="2" t="s">
         <v>93</v>
       </c>
@@ -9172,7 +9244,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A239" s="2" t="s">
         <v>93</v>
       </c>
@@ -9189,7 +9261,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A240" s="2" t="s">
         <v>93</v>
       </c>
@@ -9206,7 +9278,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A241" s="2" t="s">
         <v>93</v>
       </c>
@@ -9223,7 +9295,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A242" s="2" t="s">
         <v>93</v>
       </c>
@@ -9240,7 +9312,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A243" s="2" t="s">
         <v>93</v>
       </c>
@@ -9257,7 +9329,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A244" s="2" t="s">
         <v>93</v>
       </c>
@@ -9274,7 +9346,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A245" s="2" t="s">
         <v>93</v>
       </c>
@@ -9291,7 +9363,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A246" s="2" t="s">
         <v>93</v>
       </c>
@@ -9308,7 +9380,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A247" s="2" t="s">
         <v>93</v>
       </c>
@@ -9325,7 +9397,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A248" s="2" t="s">
         <v>93</v>
       </c>
@@ -9342,7 +9414,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A249" s="2" t="s">
         <v>93</v>
       </c>
@@ -9359,7 +9431,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A250" s="2" t="s">
         <v>93</v>
       </c>
@@ -9376,7 +9448,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A251" s="2" t="s">
         <v>93</v>
       </c>
@@ -9393,7 +9465,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A252" s="2" t="s">
         <v>93</v>
       </c>
@@ -9410,7 +9482,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A253" s="2" t="s">
         <v>93</v>
       </c>
@@ -9427,7 +9499,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A254" s="2" t="s">
         <v>93</v>
       </c>
@@ -9444,7 +9516,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A255" s="2" t="s">
         <v>93</v>
       </c>
@@ -9461,7 +9533,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A256" s="2" t="s">
         <v>93</v>
       </c>
@@ -9478,7 +9550,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A257" s="2" t="s">
         <v>93</v>
       </c>
@@ -9495,7 +9567,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A258" s="2" t="s">
         <v>93</v>
       </c>
@@ -9512,7 +9584,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A259" s="2" t="s">
         <v>93</v>
       </c>
@@ -9529,7 +9601,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A260" s="2" t="s">
         <v>93</v>
       </c>
@@ -9546,7 +9618,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A261" s="2" t="s">
         <v>93</v>
       </c>
@@ -9563,7 +9635,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A262" s="2" t="s">
         <v>93</v>
       </c>
@@ -9580,7 +9652,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A263" s="2" t="s">
         <v>93</v>
       </c>
@@ -9597,7 +9669,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A264" s="2" t="s">
         <v>93</v>
       </c>
@@ -9614,7 +9686,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A265" s="2" t="s">
         <v>93</v>
       </c>
@@ -9631,7 +9703,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A266" s="2" t="s">
         <v>93</v>
       </c>
@@ -9648,7 +9720,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A267" s="2" t="s">
         <v>93</v>
       </c>
@@ -9665,7 +9737,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A268" s="2" t="s">
         <v>93</v>
       </c>
@@ -9682,7 +9754,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A269" s="2" t="s">
         <v>93</v>
       </c>
@@ -9699,7 +9771,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A270" s="2" t="s">
         <v>93</v>
       </c>
@@ -9716,7 +9788,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A271" s="2" t="s">
         <v>93</v>
       </c>
@@ -9733,7 +9805,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A272" s="2" t="s">
         <v>93</v>
       </c>
@@ -9750,7 +9822,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A273" s="2" t="s">
         <v>93</v>
       </c>
@@ -9767,7 +9839,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A274" s="2" t="s">
         <v>93</v>
       </c>
@@ -9784,7 +9856,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A275" s="2" t="s">
         <v>93</v>
       </c>
@@ -9801,7 +9873,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A276" s="2" t="s">
         <v>93</v>
       </c>
@@ -9818,7 +9890,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A277" s="2" t="s">
         <v>93</v>
       </c>
@@ -9835,7 +9907,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A278" s="2" t="s">
         <v>93</v>
       </c>
@@ -9852,7 +9924,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A279" s="2" t="s">
         <v>93</v>
       </c>
@@ -9869,7 +9941,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A280" s="2" t="s">
         <v>93</v>
       </c>
@@ -9886,7 +9958,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A281" s="2" t="s">
         <v>93</v>
       </c>
@@ -9903,7 +9975,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A282" s="2" t="s">
         <v>93</v>
       </c>
@@ -9920,7 +9992,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A283" s="2" t="s">
         <v>93</v>
       </c>
@@ -9937,7 +10009,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A284" s="2" t="s">
         <v>93</v>
       </c>
@@ -9954,7 +10026,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A285" s="2" t="s">
         <v>93</v>
       </c>
@@ -9971,7 +10043,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A286" s="2" t="s">
         <v>93</v>
       </c>
@@ -9988,7 +10060,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A287" s="2" t="s">
         <v>93</v>
       </c>
@@ -10005,7 +10077,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A288" s="2" t="s">
         <v>93</v>
       </c>
@@ -10022,7 +10094,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A289" s="2" t="s">
         <v>93</v>
       </c>
@@ -10039,7 +10111,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A290" s="2" t="s">
         <v>93</v>
       </c>
@@ -10070,13 +10142,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -10087,7 +10159,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10098,7 +10170,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -10109,7 +10181,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -10120,7 +10192,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -10131,7 +10203,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -10142,7 +10214,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>192</v>
       </c>
@@ -10153,7 +10225,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -10177,12 +10249,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -10190,7 +10262,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10198,7 +10270,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -10206,7 +10278,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -10214,7 +10286,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -10222,7 +10294,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -10230,7 +10302,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -10238,7 +10310,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -10246,7 +10318,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -10254,7 +10326,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -10262,7 +10334,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -10270,7 +10342,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -10278,7 +10350,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -10286,7 +10358,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -10294,7 +10366,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -10302,7 +10374,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -10310,7 +10382,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -10318,7 +10390,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -10326,7 +10398,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -10334,7 +10406,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -10342,7 +10414,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -10350,7 +10422,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -10358,7 +10430,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -10366,7 +10438,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -10374,7 +10446,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -10382,7 +10454,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -10404,24 +10476,24 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" customWidth="1"/>
+    <col min="2" max="3" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.3046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.07421875" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10477,7 +10549,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10533,7 +10605,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -10580,7 +10652,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>165</v>
       </c>
@@ -10625,7 +10697,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -10672,7 +10744,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -10719,7 +10791,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -10760,7 +10832,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -10807,7 +10879,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>168</v>
       </c>
@@ -10854,7 +10926,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>223</v>
       </c>
@@ -10896,7 +10968,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>225</v>
       </c>
@@ -10937,7 +11009,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>224</v>
       </c>
@@ -10978,7 +11050,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>226</v>
       </c>
@@ -11020,7 +11092,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>227</v>
       </c>
@@ -11061,7 +11133,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -11102,7 +11174,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>239</v>
       </c>
@@ -11155,13 +11227,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11175,7 +11247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -11189,7 +11261,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -11203,7 +11275,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>165</v>
       </c>
@@ -11217,7 +11289,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>171</v>
       </c>
@@ -11231,7 +11303,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -11259,13 +11331,13 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -11279,7 +11351,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -11293,7 +11365,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -11307,7 +11379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -11321,7 +11393,7 @@
         <v>64.59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2030</v>
       </c>
@@ -11335,7 +11407,7 @@
         <v>152.91</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2035</v>
       </c>
@@ -11349,7 +11421,7 @@
         <v>169.44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2040</v>
       </c>
@@ -11363,7 +11435,7 @@
         <v>400.92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2045</v>
       </c>
@@ -11377,7 +11449,7 @@
         <v>434.72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2050</v>
       </c>
@@ -11391,7 +11463,7 @@
         <v>720.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2055</v>
       </c>
@@ -11419,14 +11491,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -11437,7 +11509,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -11448,7 +11520,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -11459,7 +11531,7 @@
         <v>3.71919846570994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -11470,7 +11542,7 @@
         <v>3.6299186561735336E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -11481,7 +11553,7 @@
         <v>3.585565328571743E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -11492,7 +11564,7 @@
         <v>3.584903996649251E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>189</v>
       </c>
@@ -11503,7 +11575,7 @@
         <v>3.6714503009060241E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>189</v>
       </c>
@@ -11514,7 +11586,7 @@
         <v>3.8644710446839932E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>189</v>
       </c>
@@ -11525,7 +11597,7 @@
         <v>4.090999272534885E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -11536,7 +11608,7 @@
         <v>4.208187289200449E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>189</v>
       </c>
@@ -11547,7 +11619,7 @@
         <v>4.2068205365606327E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -11558,7 +11630,7 @@
         <v>4.1572647311685723E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>189</v>
       </c>
@@ -11569,7 +11641,7 @@
         <v>4.1779864647399856E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>189</v>
       </c>
@@ -11580,7 +11652,7 @@
         <v>4.2292176443356914E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>189</v>
       </c>
@@ -11591,7 +11663,7 @@
         <v>4.2667812975332314E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -11602,7 +11674,7 @@
         <v>4.2907215131274379E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -11613,7 +11685,7 @@
         <v>4.3359125278310512E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -11624,7 +11696,7 @@
         <v>4.4095849039966488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -11635,7 +11707,7 @@
         <v>4.4986001807640584E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>189</v>
       </c>
@@ -11646,7 +11718,7 @@
         <v>4.5571501003020071E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>189</v>
       </c>
@@ -11657,7 +11729,7 @@
         <v>4.6068822608733989E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>189</v>
       </c>
@@ -11668,7 +11740,7 @@
         <v>4.6279567048034737E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>189</v>
       </c>
@@ -11679,7 +11751,7 @@
         <v>4.6637127174128691E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>189</v>
       </c>
@@ -11690,7 +11762,7 @@
         <v>4.4731168573507042E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -11701,7 +11773,7 @@
         <v>4.2083636443797805E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>189</v>
       </c>
@@ -11712,7 +11784,7 @@
         <v>3.9352335603906267E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>190</v>
       </c>
@@ -11723,7 +11795,7 @@
         <v>3.5708343609267057E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>190</v>
       </c>
@@ -11734,7 +11806,7 @@
         <v>3.3815046660454817E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>190</v>
       </c>
@@ -11745,7 +11817,7 @@
         <v>3.2284809322158728E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>190</v>
       </c>
@@ -11756,7 +11828,7 @@
         <v>3.1555323242296276E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>190</v>
       </c>
@@ -11767,7 +11839,7 @@
         <v>3.1296355683945107E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>190</v>
       </c>
@@ -11778,7 +11850,7 @@
         <v>3.2007885183380179E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>190</v>
       </c>
@@ -11789,7 +11861,7 @@
         <v>3.2826031879102838E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>190</v>
       </c>
@@ -11800,7 +11872,7 @@
         <v>3.4834924314416357E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -11811,7 +11883,7 @@
         <v>3.7579194832545064E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>190</v>
       </c>
@@ -11822,7 +11894,7 @@
         <v>3.9971348031355554E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>190</v>
       </c>
@@ -11833,7 +11905,7 @@
         <v>4.2642108798359668E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>190</v>
       </c>
@@ -11844,7 +11916,7 @@
         <v>4.4827761322255244E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>190</v>
       </c>
@@ -11855,7 +11927,7 @@
         <v>4.6964033249975522E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -11866,7 +11938,7 @@
         <v>4.7776568514314624E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>190</v>
       </c>
@@ -11877,7 +11949,7 @@
         <v>4.8205001300449225E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>190</v>
       </c>
@@ -11888,7 +11960,7 @@
         <v>5.0443681850919422E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>190</v>
       </c>
@@ -11899,7 +11971,7 @@
         <v>5.1229562816186625E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>190</v>
       </c>
@@ -11910,7 +11982,7 @@
         <v>5.146215664703508E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>190</v>
       </c>
@@ -11921,7 +11993,7 @@
         <v>5.0967228399005318E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>190</v>
       </c>
@@ -11932,7 +12004,7 @@
         <v>4.9399675042008581E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>190</v>
       </c>
@@ -11943,7 +12015,7 @@
         <v>4.7706145050450982E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>190</v>
       </c>
@@ -11954,7 +12026,7 @@
         <v>4.5594002277679999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>190</v>
       </c>
@@ -11965,7 +12037,7 @@
         <v>4.2075915371758733E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>190</v>
       </c>
@@ -11976,7 +12048,7 @@
         <v>3.8826896600679041E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>214</v>
       </c>
@@ -11987,7 +12059,7 @@
         <v>3.5708343609267057E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>214</v>
       </c>
@@ -11998,7 +12070,7 @@
         <v>3.3815046660454817E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>214</v>
       </c>
@@ -12009,7 +12081,7 @@
         <v>3.2284809322158728E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>214</v>
       </c>
@@ -12020,7 +12092,7 @@
         <v>3.1555323242296276E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>214</v>
       </c>
@@ -12031,7 +12103,7 @@
         <v>3.1296355683945107E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>214</v>
       </c>
@@ -12042,7 +12114,7 @@
         <v>3.2007885183380179E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>214</v>
       </c>
@@ -12053,7 +12125,7 @@
         <v>3.2826031879102838E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>214</v>
       </c>
@@ -12064,7 +12136,7 @@
         <v>3.4834924314416357E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>214</v>
       </c>
@@ -12075,7 +12147,7 @@
         <v>3.7579194832545064E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>214</v>
       </c>
@@ -12086,7 +12158,7 @@
         <v>3.9971348031355554E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>214</v>
       </c>
@@ -12097,7 +12169,7 @@
         <v>4.2642108798359668E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>214</v>
       </c>
@@ -12108,7 +12180,7 @@
         <v>4.4827761322255244E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -12119,7 +12191,7 @@
         <v>4.6964033249975522E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>214</v>
       </c>
@@ -12130,7 +12202,7 @@
         <v>4.7776568514314624E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>214</v>
       </c>
@@ -12141,7 +12213,7 @@
         <v>4.8205001300449225E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>214</v>
       </c>
@@ -12152,7 +12224,7 @@
         <v>5.0443681850919422E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>214</v>
       </c>
@@ -12163,7 +12235,7 @@
         <v>5.1229562816186625E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>214</v>
       </c>
@@ -12174,7 +12246,7 @@
         <v>5.146215664703508E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>214</v>
       </c>
@@ -12185,7 +12257,7 @@
         <v>5.0967228399005318E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>214</v>
       </c>
@@ -12196,7 +12268,7 @@
         <v>4.9399675042008581E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>214</v>
       </c>
@@ -12207,7 +12279,7 @@
         <v>4.7706145050450982E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -12218,7 +12290,7 @@
         <v>4.5594002277679999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>214</v>
       </c>
@@ -12229,7 +12301,7 @@
         <v>4.2075915371758733E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>214</v>
       </c>
@@ -12240,7 +12312,7 @@
         <v>3.8826896600679041E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>191</v>
       </c>
@@ -12251,7 +12323,7 @@
         <v>3.5405734767332574E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>191</v>
       </c>
@@ -12262,7 +12334,7 @@
         <v>3.4072566721671999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>191</v>
       </c>
@@ -12273,7 +12345,7 @@
         <v>3.389369571940673E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>191</v>
       </c>
@@ -12284,7 +12356,7 @@
         <v>3.3866672042805503E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>191</v>
       </c>
@@ -12295,7 +12367,7 @@
         <v>3.4843813872926094E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>191</v>
       </c>
@@ -12306,7 +12378,7 @@
         <v>3.7621676248633266E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>191</v>
       </c>
@@ -12317,7 +12389,7 @@
         <v>4.1705254046152149E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>191</v>
       </c>
@@ -12328,7 +12400,7 @@
         <v>4.3747900839406863E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>191</v>
       </c>
@@ -12339,7 +12411,7 @@
         <v>4.3233593089488258E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>191</v>
       </c>
@@ -12350,7 +12422,7 @@
         <v>4.369085085547094E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>191</v>
       </c>
@@ -12361,7 +12433,7 @@
         <v>4.3598198249981013E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>191</v>
       </c>
@@ -12372,7 +12444,7 @@
         <v>4.342919303441143E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>191</v>
       </c>
@@ -12383,7 +12455,7 @@
         <v>4.3443777240831143E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>191</v>
       </c>
@@ -12394,7 +12466,7 @@
         <v>4.375261925913089E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>191</v>
       </c>
@@ -12405,7 +12477,7 @@
         <v>4.4077761272840896E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>191</v>
       </c>
@@ -12416,7 +12488,7 @@
         <v>4.4618663752113097E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>191</v>
       </c>
@@ -12427,7 +12499,7 @@
         <v>4.4892332096106484E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -12438,7 +12510,7 @@
         <v>4.5406210898777451E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>191</v>
       </c>
@@ -12449,7 +12521,7 @@
         <v>4.7489178733310197E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -12460,7 +12532,7 @@
         <v>4.7440278747079401E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -12471,7 +12543,7 @@
         <v>4.6340886951381825E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -12482,7 +12554,7 @@
         <v>4.4351000669586652E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -12493,7 +12565,7 @@
         <v>4.0931862158659862E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>191</v>
       </c>
@@ -12504,7 +12576,7 @@
         <v>3.8146278732495195E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>192</v>
       </c>
@@ -12515,7 +12587,7 @@
         <v>3.8174573194236283E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>192</v>
       </c>
@@ -12526,7 +12598,7 @@
         <v>3.7914264955818393E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>192</v>
       </c>
@@ -12537,7 +12609,7 @@
         <v>3.859254649671446E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>192</v>
       </c>
@@ -12548,7 +12620,7 @@
         <v>3.9329067581681768E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>192</v>
       </c>
@@ -12559,7 +12631,7 @@
         <v>4.0593605748532595E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>192</v>
       </c>
@@ -12570,7 +12642,7 @@
         <v>4.3176738675626339E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>192</v>
       </c>
@@ -12581,7 +12653,7 @@
         <v>4.6808826926876233E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>192</v>
       </c>
@@ -12592,7 +12664,7 @@
         <v>4.7738729039395036E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>192</v>
       </c>
@@ -12603,7 +12675,7 @@
         <v>4.6211952041505175E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>192</v>
       </c>
@@ -12614,7 +12686,7 @@
         <v>4.3901997970303627E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>192</v>
       </c>
@@ -12625,7 +12697,7 @@
         <v>4.1852673902956841E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -12636,7 +12708,7 @@
         <v>4.0126080568778331E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>192</v>
       </c>
@@ -12647,7 +12719,7 @@
         <v>3.9051705775110419E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>192</v>
       </c>
@@ -12658,7 +12730,7 @@
         <v>3.8019160488234005E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>192</v>
       </c>
@@ -12669,7 +12741,7 @@
         <v>3.7317711835884185E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>192</v>
       </c>
@@ -12680,7 +12752,7 @@
         <v>3.7940971487077584E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>192</v>
       </c>
@@ -12691,7 +12763,7 @@
         <v>3.9449086089629701E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>192</v>
       </c>
@@ -12702,7 +12774,7 @@
         <v>4.2362993885813174E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>192</v>
       </c>
@@ -12713,7 +12785,7 @@
         <v>4.4625004906922915E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>192</v>
       </c>
@@ -12724,7 +12796,7 @@
         <v>4.5016593443578758E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>192</v>
       </c>
@@ -12735,7 +12807,7 @@
         <v>4.4759181094092583E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>192</v>
       </c>
@@ -12746,7 +12818,7 @@
         <v>4.3864029648754417E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>192</v>
       </c>
@@ -12757,7 +12829,7 @@
         <v>4.2250054217476116E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>192</v>
       </c>
@@ -12768,7 +12840,7 @@
         <v>4.0922450025001181E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>201</v>
       </c>
@@ -12779,7 +12851,7 @@
         <v>3.8174573194236283E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>201</v>
       </c>
@@ -12790,7 +12862,7 @@
         <v>3.7914264955818393E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>201</v>
       </c>
@@ -12801,7 +12873,7 @@
         <v>3.859254649671446E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>201</v>
       </c>
@@ -12812,7 +12884,7 @@
         <v>3.9329067581681768E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>201</v>
       </c>
@@ -12823,7 +12895,7 @@
         <v>4.0593605748532595E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>201</v>
       </c>
@@ -12834,7 +12906,7 @@
         <v>4.3176738675626339E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>201</v>
       </c>
@@ -12845,7 +12917,7 @@
         <v>4.6808826926876233E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>201</v>
       </c>
@@ -12856,7 +12928,7 @@
         <v>4.7738729039395036E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>201</v>
       </c>
@@ -12867,7 +12939,7 @@
         <v>4.6211952041505175E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>201</v>
       </c>
@@ -12878,7 +12950,7 @@
         <v>4.3901997970303627E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>201</v>
       </c>
@@ -12889,7 +12961,7 @@
         <v>4.1852673902956841E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>201</v>
       </c>
@@ -12900,7 +12972,7 @@
         <v>4.0126080568778331E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>201</v>
       </c>
@@ -12911,7 +12983,7 @@
         <v>3.9051705775110419E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>201</v>
       </c>
@@ -12922,7 +12994,7 @@
         <v>3.8019160488234005E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>201</v>
       </c>
@@ -12933,7 +13005,7 @@
         <v>3.7317711835884185E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>201</v>
       </c>
@@ -12944,7 +13016,7 @@
         <v>3.7940971487077584E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>201</v>
       </c>
@@ -12955,7 +13027,7 @@
         <v>3.9449086089629701E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>201</v>
       </c>
@@ -12966,7 +13038,7 @@
         <v>4.2362993885813174E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>201</v>
       </c>
@@ -12977,7 +13049,7 @@
         <v>4.4625004906922915E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>201</v>
       </c>
@@ -12988,7 +13060,7 @@
         <v>4.5016593443578758E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>201</v>
       </c>
@@ -12999,7 +13071,7 @@
         <v>4.4759181094092583E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>201</v>
       </c>
@@ -13010,7 +13082,7 @@
         <v>4.3864029648754417E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>201</v>
       </c>
@@ -13021,7 +13093,7 @@
         <v>4.2250054217476116E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>201</v>
       </c>
@@ -13032,7 +13104,7 @@
         <v>4.0922450025001181E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C149" s="16"/>
     </row>
   </sheetData>
@@ -13047,13 +13119,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -13061,7 +13133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -13069,7 +13141,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -13090,9 +13162,9 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>206</v>
       </c>
@@ -13109,7 +13181,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>211</v>
       </c>

--- a/projects/va_emerging_tech/data/data_va_noEmissionLimit.xlsx
+++ b/projects/va_emerging_tech/data/data_va_noEmissionLimit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00316D14-4C25-4FFC-B2AB-4F964B823971}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593C7653-5139-417C-B06E-6681EB313C1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="6840" windowWidth="29040" windowHeight="15840" tabRatio="844" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="844" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="DiscountRateGlobal" sheetId="5" r:id="rId8"/>
     <sheet name="Emission" sheetId="20" r:id="rId9"/>
     <sheet name="Fuels" sheetId="6" r:id="rId10"/>
-    <sheet name="FuelsExisting" sheetId="7" r:id="rId11"/>
-    <sheet name="PowerPlants" sheetId="8" r:id="rId12"/>
+    <sheet name="PowerPlants" sheetId="8" r:id="rId11"/>
+    <sheet name="FuelsExisting" sheetId="7" r:id="rId12"/>
     <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId13"/>
     <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId14"/>
     <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId15"/>
@@ -1376,12 +1376,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -1438,13 +1438,13 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1496,32 +1496,32 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>123</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>124</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -1553,13 +1553,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>129</v>
       </c>
       <c r="C19" s="12"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>132</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>164</v>
       </c>
@@ -1633,27 +1633,27 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.4609375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.07421875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.07421875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.07421875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
     </row>
@@ -1975,52 +1975,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
@@ -2028,18 +1982,18 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3046875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.07421875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.4609375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2077,7 +2031,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -2115,7 +2069,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -2148,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>235</v>
       </c>
@@ -2181,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
@@ -2214,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
@@ -2247,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>236</v>
       </c>
@@ -2280,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
@@ -2313,7 +2267,7 @@
         <v>-3.68</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>186</v>
       </c>
@@ -2346,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>107</v>
       </c>
@@ -2379,7 +2333,7 @@
         <v>-2.84</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>202</v>
       </c>
@@ -2415,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>193</v>
       </c>
@@ -2448,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>203</v>
       </c>
@@ -2484,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>108</v>
       </c>
@@ -2520,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>109</v>
       </c>
@@ -2553,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>176</v>
       </c>
@@ -2586,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>178</v>
       </c>
@@ -2619,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>110</v>
       </c>
@@ -2652,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>111</v>
       </c>
@@ -2685,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>112</v>
       </c>
@@ -2718,7 +2672,7 @@
         <v>-2.95</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>113</v>
       </c>
@@ -2751,7 +2705,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
@@ -2787,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
@@ -2820,7 +2774,7 @@
         <v>-2.95</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>229</v>
       </c>
@@ -2874,26 +2828,72 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.4609375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>235</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>236</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>186</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>193</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>202</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>107</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>108</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>203</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>109</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>176</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>178</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>110</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>111</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>112</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>113</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>229</v>
       </c>
@@ -3539,28 +3539,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" activeCellId="1" sqref="D14 B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.07421875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.53515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.07421875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.53515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.3046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.07421875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>103</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>235</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>104</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>105</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>236</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>106</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>186</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>193</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>202</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>107</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
         <v>108</v>
       </c>
@@ -3921,7 +3921,7 @@
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
     </row>
-    <row r="14" spans="1:12" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>203</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
         <v>109</v>
       </c>
@@ -3989,7 +3989,7 @@
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
         <v>176</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
         <v>178</v>
       </c>
@@ -4057,7 +4057,7 @@
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>110</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
         <v>111</v>
       </c>
@@ -4125,7 +4125,7 @@
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
         <v>112</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
         <v>113</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>120</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>121</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>229</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="5"/>
@@ -4331,20 +4331,20 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.4609375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.4609375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.07421875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.07421875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -4418,7 +4418,7 @@
       <c r="C3" s="5"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>235</v>
       </c>
@@ -4428,7 +4428,7 @@
       <c r="C4" s="5"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
@@ -4436,7 +4436,7 @@
       <c r="C5" s="5"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="C6" s="5"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>236</v>
       </c>
@@ -4452,7 +4452,7 @@
       <c r="C7" s="5"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
@@ -4460,7 +4460,7 @@
       <c r="C8" s="5"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>186</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="C9" s="5"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>193</v>
       </c>
@@ -4480,7 +4480,7 @@
       <c r="C10" s="5"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>202</v>
       </c>
@@ -4488,7 +4488,7 @@
       <c r="C11" s="5"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>107</v>
       </c>
@@ -4496,7 +4496,7 @@
       <c r="C12" s="5"/>
       <c r="H12" s="49"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>108</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>203</v>
       </c>
@@ -4532,7 +4532,7 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>109</v>
       </c>
@@ -4550,7 +4550,7 @@
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>176</v>
       </c>
@@ -4568,7 +4568,7 @@
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>178</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>110</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>111</v>
       </c>
@@ -4618,7 +4618,7 @@
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>112</v>
       </c>
@@ -4638,7 +4638,7 @@
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>113</v>
       </c>
@@ -4658,7 +4658,7 @@
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>229</v>
       </c>
@@ -4702,14 +4702,14 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>235</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>236</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>193</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -4905,14 +4905,14 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2025</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>2030</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>2035</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>2040</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>2045</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>2050</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="39">
         <v>2035</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="39">
         <v>2040</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="39">
         <v>2045</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="39">
         <v>2050</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>2035</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>2040</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>2045</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>2050</v>
       </c>
@@ -5149,14 +5149,14 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.07421875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>0.41860000000000003</v>
       </c>
@@ -5190,15 +5190,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>92</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>92</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>92</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>92</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>92</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>92</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>92</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>92</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>92</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>92</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>92</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>92</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>92</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>92</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>92</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>92</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>92</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>92</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>92</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>92</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>92</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>92</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>92</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>92</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>92</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>92</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>92</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>92</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>92</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>92</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>92</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>92</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>92</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>92</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>92</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>92</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>92</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>92</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>92</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>92</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>92</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>92</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>92</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>92</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>92</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>92</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>92</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>92</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>92</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>92</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>92</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>92</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>92</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>92</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>92</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>92</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>92</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>92</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>92</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>92</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>92</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>92</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>92</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>92</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>92</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>92</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>92</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>92</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>92</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>92</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>92</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>92</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>92</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>92</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>92</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>92</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>93</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>93</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>93</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>93</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>93</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>93</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>93</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>93</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>93</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>93</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>93</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>93</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>93</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>93</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>93</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>93</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>93</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>93</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>93</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>93</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>93</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>93</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>93</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>93</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>93</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>93</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>93</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>93</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>93</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>93</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>93</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>93</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>93</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>93</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>93</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>93</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>93</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>93</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>93</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>93</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>93</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>93</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>93</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>93</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>93</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>93</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>93</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>93</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>93</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>93</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>93</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>93</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>93</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>93</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>93</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>93</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>93</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>93</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>93</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>93</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>93</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>93</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>93</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>93</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>93</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>93</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>93</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>93</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>93</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>93</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>93</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>93</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>93</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>93</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>93</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>93</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>93</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>93</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>93</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>93</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>93</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>93</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>93</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>93</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>93</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>93</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>93</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>93</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>93</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>93</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>93</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>93</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>93</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>93</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>93</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>93</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>93</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>93</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>93</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>93</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>93</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>93</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>93</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>93</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>93</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>93</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>93</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>93</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>93</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>93</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>93</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>93</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>93</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>93</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>93</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>93</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>93</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>93</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>93</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>93</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>93</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>93</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>93</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>93</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>93</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>93</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>93</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>93</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>93</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>93</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>93</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>93</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>93</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>93</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>93</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>93</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>93</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>93</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>93</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>93</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>93</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>93</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>93</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>93</v>
       </c>
@@ -10142,13 +10142,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>192</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -10249,12 +10249,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -10476,24 +10476,24 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.07421875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.4609375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.07421875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.4609375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.07421875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.3046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.4609375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.07421875" customWidth="1"/>
+    <col min="2" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>165</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>168</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>223</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>225</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>224</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>226</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>227</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>239</v>
       </c>
@@ -11227,13 +11227,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>165</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>171</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -11331,13 +11331,13 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.07421875" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>64.59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2030</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>152.91</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2035</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>169.44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2040</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>400.92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2045</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>434.72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2050</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>720.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2055</v>
       </c>
@@ -11491,14 +11491,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.07421875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>3.71919846570994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>3.6299186561735336E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>3.585565328571743E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>3.584903996649251E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>189</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>3.6714503009060241E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>189</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>3.8644710446839932E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>189</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>4.090999272534885E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>4.208187289200449E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>189</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>4.2068205365606327E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>4.1572647311685723E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>189</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>4.1779864647399856E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>189</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>4.2292176443356914E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>189</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>4.2667812975332314E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>4.2907215131274379E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>4.3359125278310512E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>4.4095849039966488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>4.4986001807640584E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>189</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>4.5571501003020071E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>189</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>4.6068822608733989E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>189</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>4.6279567048034737E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>189</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>4.6637127174128691E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>189</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>4.4731168573507042E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>4.2083636443797805E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>189</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>3.9352335603906267E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>190</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>3.5708343609267057E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>190</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>3.3815046660454817E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>190</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>3.2284809322158728E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>190</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>3.1555323242296276E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>190</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>3.1296355683945107E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>190</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>3.2007885183380179E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>190</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>3.2826031879102838E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>190</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>3.4834924314416357E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>3.7579194832545064E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>190</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>3.9971348031355554E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>190</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>4.2642108798359668E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>190</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>4.4827761322255244E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>190</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>4.6964033249975522E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>4.7776568514314624E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>190</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>4.8205001300449225E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>190</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>5.0443681850919422E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>190</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>5.1229562816186625E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>190</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>5.146215664703508E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>190</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>5.0967228399005318E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>190</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>4.9399675042008581E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>190</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>4.7706145050450982E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>190</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>4.5594002277679999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>190</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>4.2075915371758733E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>190</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>3.8826896600679041E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>214</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>3.5708343609267057E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>214</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>3.3815046660454817E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>214</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>3.2284809322158728E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>214</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>3.1555323242296276E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>214</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>3.1296355683945107E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>214</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>3.2007885183380179E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>214</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>3.2826031879102838E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>214</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>3.4834924314416357E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>214</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>3.7579194832545064E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>214</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>3.9971348031355554E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>214</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>4.2642108798359668E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>214</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>4.4827761322255244E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>4.6964033249975522E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>214</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>4.7776568514314624E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>214</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>4.8205001300449225E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>214</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>5.0443681850919422E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>214</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>5.1229562816186625E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>214</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>5.146215664703508E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>214</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>5.0967228399005318E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>214</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>4.9399675042008581E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>214</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>4.7706145050450982E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>4.5594002277679999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>214</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>4.2075915371758733E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>214</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>3.8826896600679041E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>191</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>3.5405734767332574E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>191</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>3.4072566721671999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>191</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>3.389369571940673E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>191</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>3.3866672042805503E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>191</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>3.4843813872926094E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>191</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>3.7621676248633266E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>191</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>4.1705254046152149E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>191</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>4.3747900839406863E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>191</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>4.3233593089488258E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>191</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>4.369085085547094E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>191</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>4.3598198249981013E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>191</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>4.342919303441143E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>191</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>4.3443777240831143E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>191</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>4.375261925913089E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>191</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>4.4077761272840896E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>191</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>4.4618663752113097E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>191</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>4.4892332096106484E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>4.5406210898777451E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>191</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>4.7489178733310197E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>4.7440278747079401E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>4.6340886951381825E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>4.4351000669586652E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>4.0931862158659862E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>191</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>3.8146278732495195E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>192</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>3.8174573194236283E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>192</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>3.7914264955818393E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>192</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>3.859254649671446E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>192</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>3.9329067581681768E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>192</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>4.0593605748532595E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>192</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>4.3176738675626339E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>192</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>4.6808826926876233E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>192</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>4.7738729039395036E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>192</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>4.6211952041505175E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>192</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>4.3901997970303627E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>192</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>4.1852673902956841E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>4.0126080568778331E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>192</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>3.9051705775110419E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>192</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>3.8019160488234005E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>192</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>3.7317711835884185E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>192</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>3.7940971487077584E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>192</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>3.9449086089629701E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>192</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>4.2362993885813174E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>192</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>4.4625004906922915E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>192</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>4.5016593443578758E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>192</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>4.4759181094092583E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>192</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>4.3864029648754417E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>192</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>4.2250054217476116E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>192</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>4.0922450025001181E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>201</v>
       </c>
@@ -12851,7 +12851,7 @@
         <v>3.8174573194236283E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>201</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>3.7914264955818393E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>201</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>3.859254649671446E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>201</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>3.9329067581681768E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>201</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>4.0593605748532595E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>201</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>4.3176738675626339E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>201</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>4.6808826926876233E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>201</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>4.7738729039395036E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>201</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>4.6211952041505175E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>201</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>4.3901997970303627E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>201</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>4.1852673902956841E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>201</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>4.0126080568778331E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>201</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>3.9051705775110419E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>201</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>3.8019160488234005E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>201</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>3.7317711835884185E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>201</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>3.7940971487077584E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>201</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>3.9449086089629701E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>201</v>
       </c>
@@ -13038,7 +13038,7 @@
         <v>4.2362993885813174E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>201</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>4.4625004906922915E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>201</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>4.5016593443578758E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>201</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>4.4759181094092583E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>201</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>4.3864029648754417E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>201</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>4.2250054217476116E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>201</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>4.0922450025001181E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C149" s="16"/>
     </row>
   </sheetData>
@@ -13119,13 +13119,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.07421875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -13162,9 +13162,9 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>206</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>211</v>
       </c>

--- a/projects/va_emerging_tech/data/data_va_noEmissionLimit.xlsx
+++ b/projects/va_emerging_tech/data/data_va_noEmissionLimit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593C7653-5139-417C-B06E-6681EB313C1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96669B4E-F226-48AC-900E-398DC5D91355}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="844" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="72" yWindow="0" windowWidth="23208" windowHeight="12480" tabRatio="844" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -28,19 +28,10 @@
     <sheet name="ReserveMargin" sheetId="13" r:id="rId18"/>
     <sheet name="capacityFactorTOD" sheetId="14" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -998,7 +989,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1063,6 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1979,7 +1971,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3539,7 +3531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -10472,8 +10464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10630,7 +10622,7 @@
       <c r="H3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="64">
         <v>0</v>
       </c>
       <c r="J3" s="2">
@@ -10675,8 +10667,8 @@
         <v>0</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2">
-        <v>24</v>
+      <c r="I4" s="64">
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -10722,8 +10714,8 @@
       <c r="H5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="2">
-        <v>2322.6</v>
+      <c r="I5" s="64">
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -10769,7 +10761,7 @@
       <c r="H6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="64">
         <v>0</v>
       </c>
       <c r="J6" s="2">
@@ -11224,7 +11216,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11266,7 +11258,7 @@
         <v>98</v>
       </c>
       <c r="B3">
-        <v>50000</v>
+        <v>16802</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -11280,7 +11272,7 @@
         <v>165</v>
       </c>
       <c r="B4">
-        <v>50000</v>
+        <v>16734</v>
       </c>
       <c r="C4">
         <v>2000</v>
@@ -11291,10 +11283,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5">
-        <v>50000</v>
+        <v>15563</v>
       </c>
       <c r="C5">
         <v>2000</v>
@@ -11305,10 +11297,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B6">
-        <v>50000</v>
+        <v>15563</v>
       </c>
       <c r="C6">
         <v>2000</v>
